--- a/data/input/neighbors_capacities;source=TYNDP_2022.xlsx
+++ b/data/input/neighbors_capacities;source=TYNDP_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,57 +440,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>2045</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t># Unit</t>
         </is>
       </c>
     </row>
@@ -500,52 +510,62 @@
           <t>Battery large 4h</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Battery large 4h</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.11</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.16</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.22</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.27</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.46</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.65</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.84</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>1.03</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>1.22</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>1.61</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>2.39</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>2.78</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -557,52 +577,62 @@
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.31</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.42</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.53</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.64</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.75</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.86</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.85</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>0.84</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.82</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.8</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.74</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.67</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>0.61</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>0.55</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -614,52 +644,62 @@
           <t>Biomass straw</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.31</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>0.42</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.53</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.64</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.75</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.86</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.85</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>0.84</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.82</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.8</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.74</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.67</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.61</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>0.55</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -668,55 +708,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Biomass wood</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.31</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.42</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.53</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.64</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.75</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.86</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.85</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.84</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.82</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.8</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.74</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.67</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.61</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.55</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -728,52 +778,62 @@
           <t>Hard coal</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hard coal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hard coal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1.2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>1.11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>1.02</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.92</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.83</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.74</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.67</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.59</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.52</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.44</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.37</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.19</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -785,20 +845,24 @@
           <t>Hydro PSH</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.17</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>1.17</v>
       </c>
       <c r="E7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="F7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G7" t="n">
         <v>1.16</v>
@@ -830,7 +894,13 @@
       <c r="P7" t="n">
         <v>1.16</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -842,38 +912,42 @@
           <t>Hydro ROR</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1.09</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>1.09</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>1.1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.11</v>
       </c>
       <c r="H8" t="n">
         <v>1.11</v>
       </c>
       <c r="I8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K8" t="n">
         <v>1.12</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1.12</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.13</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
@@ -887,7 +961,13 @@
       <c r="P8" t="n">
         <v>1.13</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -899,52 +979,62 @@
           <t>Lignite</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>7.93</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>7.32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>6.71</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>6.11</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>5.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>4.89</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>4.41</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>3.93</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>3.44</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.96</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>2.48</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>1.24</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -956,41 +1046,45 @@
           <t>Natural gas CCGT</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Natural gas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Natural gas CCGT</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1.23</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>1.25</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>1.26</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>1.28</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>1.29</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>1.31</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>1.86</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.95</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.49</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4.04</v>
       </c>
       <c r="N10" t="n">
         <v>4.04</v>
@@ -1001,7 +1095,13 @@
       <c r="P10" t="n">
         <v>4.04</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1013,23 +1113,27 @@
           <t>Nuclear</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>4.04</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>4.04</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>4.05</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>4.05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.06</v>
       </c>
       <c r="H11" t="n">
         <v>4.06</v>
@@ -1038,27 +1142,33 @@
         <v>4.06</v>
       </c>
       <c r="J11" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="K11" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="L11" t="n">
         <v>4.05</v>
       </c>
       <c r="M11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O11" t="n">
         <v>4.61</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>5.17</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>5.73</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>6.29</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1067,55 +1177,65 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.16</v>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>2.27</v>
+        <v>1.02</v>
       </c>
       <c r="E12" t="n">
-        <v>2.38</v>
+        <v>1.08</v>
       </c>
       <c r="F12" t="n">
-        <v>2.49</v>
+        <v>1.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>1.19</v>
       </c>
       <c r="H12" t="n">
-        <v>3.71</v>
+        <v>1.25</v>
       </c>
       <c r="I12" t="n">
-        <v>4.82</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="R12" t="n">
         <v>5.94</v>
       </c>
-      <c r="K12" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="M12" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="O12" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="P12" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1124,55 +1244,132 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Wind onshore</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.34</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E14" t="n">
         <v>0.4</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F14" t="n">
         <v>0.45</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G14" t="n">
         <v>0.51</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H14" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I14" t="n">
         <v>0.62</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J14" t="n">
         <v>0.64</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K14" t="n">
         <v>0.67</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L14" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M14" t="n">
         <v>0.72</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N14" t="n">
         <v>0.74</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O14" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P14" t="n">
         <v>1.14</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q14" t="n">
         <v>1.34</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R14" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1189,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,57 +1397,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>2045</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t># Unit</t>
         </is>
       </c>
     </row>
@@ -1260,52 +1467,62 @@
           <t>Battery large 4h</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Battery large 4h</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.57</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>1.13</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>1.7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>2.26</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>2.83</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>3.25</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>3.67</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>4.1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>4.52</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>4.94</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>6.2</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>7.45</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>9.960000000000001</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1317,52 +1534,62 @@
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>3.96</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>3.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>3.64</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>3.47</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>3.31</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>3.15</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>3.68</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.21</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>4.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>5.28</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>5.81</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>6.2</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>6.59</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>6.98</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>7.37</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1374,52 +1601,62 @@
           <t>Biomass straw</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>3.96</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>3.8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>3.64</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>3.47</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>3.31</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>3.15</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>3.68</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>4.21</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>4.75</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5.28</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>5.81</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>6.2</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>6.59</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>6.98</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>7.37</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1428,55 +1665,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Biomass wood</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3.96</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>3.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>3.64</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>3.47</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>3.31</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>3.15</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>3.68</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>4.21</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>4.75</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>5.28</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>5.81</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>6.2</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>6.59</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>6.98</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>7.37</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1488,52 +1735,62 @@
           <t>DSR</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSR</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.75</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>1.25</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>1.35</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>1.45</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1.56</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.66</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.76</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>2.46</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>3.17</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>3.88</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>4.58</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1545,52 +1802,62 @@
           <t>Hard coal</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hard coal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hard coal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>22.98</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>21.04</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>19.09</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>17.15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>15.2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>13.26</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>12.4</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>11.54</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>10.67</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>9.81</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>4.47</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1602,52 +1869,62 @@
           <t>Hydro PSH</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>9.42</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>9.380000000000001</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>9.34</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>9.26</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>9.18</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>9.1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>9.06</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>9.02</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>9.16</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>9.43</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>9.56</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1659,41 +1936,45 @@
           <t>Hydro ROR</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>5.19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>5.13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>5.07</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>5.02</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>4.96</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>4.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>5.13</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>5.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>5.58</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>5.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.03</v>
       </c>
       <c r="N9" t="n">
         <v>6.03</v>
@@ -1704,7 +1985,13 @@
       <c r="P9" t="n">
         <v>6.03</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1716,52 +2003,62 @@
           <t>Lignite</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>20.78</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>19.02</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>17.26</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>15.51</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>13.75</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>11.99</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>11.21</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>10.43</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>9.65</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>8.09</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>4.05</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1773,52 +2070,62 @@
           <t>Natural gas CCGT</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Natural gas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Natural gas CCGT</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>28.46</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>27.85</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>27.25</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>26.64</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>26.04</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>25.43</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>25.52</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>25.62</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>25.71</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>25.81</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>25.9</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>27.12</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>28.34</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>29.56</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>30.78</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1830,11 +2137,15 @@
           <t>Natural gas OCGT</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.37</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Natural gas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Natural gas OCGT</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>3.37</v>
@@ -1849,33 +2160,39 @@
         <v>3.37</v>
       </c>
       <c r="H12" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.31</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>3.25</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>3.18</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.12</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>3.06</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>3.04</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>3.02</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>2.98</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1887,27 +2204,31 @@
           <t>Nuclear</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>6.49</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>4.87</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>3.24</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>1.62</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
@@ -1932,7 +2253,13 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1944,52 +2271,62 @@
           <t>Oil</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>4.28</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>3.62</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>2.97</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>2.31</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>1.66</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>0.97</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>0.91</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.88</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.85</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.74</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>0.64</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.53</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>0.43</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -1998,55 +2335,65 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55.51</v>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>60.25</v>
+        <v>25.38</v>
       </c>
       <c r="E15" t="n">
-        <v>65</v>
+        <v>27.75</v>
       </c>
       <c r="F15" t="n">
-        <v>69.73999999999999</v>
+        <v>30.13</v>
       </c>
       <c r="G15" t="n">
-        <v>74.48999999999999</v>
+        <v>32.5</v>
       </c>
       <c r="H15" t="n">
-        <v>78.81999999999999</v>
+        <v>34.87</v>
       </c>
       <c r="I15" t="n">
-        <v>83.15000000000001</v>
+        <v>37.24</v>
       </c>
       <c r="J15" t="n">
-        <v>87.48</v>
+        <v>39.41</v>
       </c>
       <c r="K15" t="n">
-        <v>91.81</v>
+        <v>41.58</v>
       </c>
       <c r="L15" t="n">
-        <v>96.14</v>
+        <v>43.74</v>
       </c>
       <c r="M15" t="n">
-        <v>110.96</v>
+        <v>45.9</v>
       </c>
       <c r="N15" t="n">
-        <v>125.79</v>
+        <v>48.07</v>
       </c>
       <c r="O15" t="n">
-        <v>140.62</v>
+        <v>55.48</v>
       </c>
       <c r="P15" t="n">
-        <v>155.44</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+        <v>62.9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>70.31</v>
+      </c>
+      <c r="R15" t="n">
+        <v>77.72</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2055,55 +2402,65 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wind offshore</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8.33</v>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>9.02</v>
+        <v>25.38</v>
       </c>
       <c r="E16" t="n">
-        <v>9.699999999999999</v>
+        <v>27.75</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39</v>
+        <v>30.13</v>
       </c>
       <c r="G16" t="n">
-        <v>11.08</v>
+        <v>32.5</v>
       </c>
       <c r="H16" t="n">
-        <v>13.59</v>
+        <v>34.87</v>
       </c>
       <c r="I16" t="n">
-        <v>16.1</v>
+        <v>37.24</v>
       </c>
       <c r="J16" t="n">
-        <v>18.61</v>
+        <v>39.41</v>
       </c>
       <c r="K16" t="n">
-        <v>21.12</v>
+        <v>41.58</v>
       </c>
       <c r="L16" t="n">
-        <v>23.63</v>
+        <v>43.74</v>
       </c>
       <c r="M16" t="n">
-        <v>31.83</v>
+        <v>45.9</v>
       </c>
       <c r="N16" t="n">
-        <v>40.02</v>
+        <v>48.07</v>
       </c>
       <c r="O16" t="n">
-        <v>48.22</v>
+        <v>55.48</v>
       </c>
       <c r="P16" t="n">
-        <v>56.41</v>
-      </c>
-      <c r="Q16" t="inlineStr">
+        <v>62.9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>70.31</v>
+      </c>
+      <c r="R16" t="n">
+        <v>77.72</v>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2112,55 +2469,132 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="K17" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="M17" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="O17" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="P17" t="n">
+        <v>40.02</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="R17" t="n">
+        <v>56.41</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Wind onshore</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>53.84</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E18" t="n">
         <v>55.86</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F18" t="n">
         <v>57.88</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G18" t="n">
         <v>59.9</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H18" t="n">
         <v>61.92</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I18" t="n">
         <v>63.94</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J18" t="n">
         <v>66.23</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K18" t="n">
         <v>68.51000000000001</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L18" t="n">
         <v>70.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M18" t="n">
         <v>73.08</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N18" t="n">
         <v>75.37</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O18" t="n">
         <v>82.08</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P18" t="n">
         <v>88.8</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q18" t="n">
         <v>95.51000000000001</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R18" t="n">
         <v>102.23</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2177,7 +2611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2188,57 +2622,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>2045</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t># Unit</t>
         </is>
       </c>
     </row>
@@ -2248,11 +2692,15 @@
           <t>Battery large 4h</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Battery large 4h</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2270,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.01</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.02</v>
       </c>
       <c r="M2" t="n">
         <v>0.02</v>
@@ -2293,7 +2741,13 @@
       <c r="P2" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2305,26 +2759,30 @@
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.08</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.09</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.09</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.11</v>
       </c>
       <c r="I3" t="n">
         <v>0.11</v>
@@ -2339,10 +2797,10 @@
         <v>0.11</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O3" t="n">
         <v>0.1</v>
@@ -2350,7 +2808,13 @@
       <c r="P3" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2362,26 +2826,30 @@
           <t>Biomass straw</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.08</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.09</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.11</v>
       </c>
       <c r="I4" t="n">
         <v>0.11</v>
@@ -2396,10 +2864,10 @@
         <v>0.11</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O4" t="n">
         <v>0.1</v>
@@ -2407,7 +2875,13 @@
       <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2416,29 +2890,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Biomass wood</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.09</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.09</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.11</v>
       </c>
       <c r="I5" t="n">
         <v>0.11</v>
@@ -2453,10 +2931,10 @@
         <v>0.11</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O5" t="n">
         <v>0.1</v>
@@ -2464,7 +2942,13 @@
       <c r="P5" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2476,52 +2960,62 @@
           <t>DSR</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSR</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0.01</v>
       </c>
       <c r="H6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.02</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.03</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.03</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.04</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.04</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>0.05</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0.06</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>0.06</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2533,23 +3027,27 @@
           <t>Hydro PSH</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>0.9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>0.91</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.92</v>
       </c>
       <c r="H7" t="n">
         <v>0.92</v>
@@ -2558,10 +3056,10 @@
         <v>0.92</v>
       </c>
       <c r="J7" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K7" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L7" t="n">
         <v>0.93</v>
@@ -2578,7 +3076,13 @@
       <c r="P7" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2590,41 +3094,45 @@
           <t>Hydro ROR</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>0.11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>0.09</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.03</v>
       </c>
       <c r="H8" t="n">
         <v>0.05</v>
       </c>
       <c r="I8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.09</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.11</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.13</v>
       </c>
       <c r="N8" t="n">
         <v>0.13</v>
@@ -2635,7 +3143,13 @@
       <c r="P8" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2647,26 +3161,30 @@
           <t>Natural gas CCGT</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Natural gas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Natural gas CCGT</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1.83</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>1.54</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>1.26</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.97</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4</v>
       </c>
       <c r="I9" t="n">
         <v>0.4</v>
@@ -2692,7 +3210,13 @@
       <c r="P9" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2704,26 +3228,30 @@
           <t>Oil</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.03</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>0.06</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.09</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0.12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.15</v>
       </c>
       <c r="I10" t="n">
         <v>0.15</v>
@@ -2749,7 +3277,13 @@
       <c r="P10" t="n">
         <v>0.15</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2758,55 +3292,65 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.31</v>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.66</v>
+        <v>0.16</v>
       </c>
       <c r="F11" t="n">
-        <v>0.83</v>
+        <v>0.24</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="H11" t="n">
-        <v>1.05</v>
+        <v>0.41</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.15</v>
+        <v>0.52</v>
       </c>
       <c r="K11" t="n">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>0.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>0.62</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>0.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q11" t="inlineStr">
+        <v>0.62</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2815,55 +3359,65 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wind offshore</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H12" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="n">
-        <v>0.84</v>
+        <v>0.52</v>
       </c>
       <c r="K12" t="n">
-        <v>1.12</v>
+        <v>0.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
       <c r="M12" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="N12" t="n">
-        <v>1.4</v>
+        <v>0.62</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>0.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q12" t="inlineStr">
+        <v>0.62</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2872,55 +3426,132 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Wind onshore</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.54</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E14" t="n">
         <v>0.75</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F14" t="n">
         <v>0.96</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G14" t="n">
         <v>1.18</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H14" t="n">
         <v>1.39</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I14" t="n">
         <v>1.6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J14" t="n">
         <v>1.68</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K14" t="n">
         <v>1.76</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L14" t="n">
         <v>1.84</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M14" t="n">
         <v>1.92</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N14" t="n">
         <v>2</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O14" t="n">
         <v>2.05</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P14" t="n">
         <v>2.1</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q14" t="n">
         <v>2.15</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R14" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -2937,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2948,57 +3579,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>2045</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t># Unit</t>
         </is>
       </c>
     </row>
@@ -3008,11 +3649,15 @@
           <t>Battery large 4h</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Battery large 4h</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3027,33 +3672,39 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.11</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.22</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.32</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.54</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.88</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.21</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>1.54</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3065,52 +3716,62 @@
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>2.54</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>2.28</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>2.03</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>1.77</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1.51</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>1.55</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>1.58</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1.62</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.65</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>1.69</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>1.64</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>1.58</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>1.53</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3122,52 +3783,62 @@
           <t>Biomass straw</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>2.8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>2.54</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>2.28</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>2.03</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1.77</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1.51</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>1.55</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1.58</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>1.62</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.65</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>1.69</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>1.64</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.58</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>1.53</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3176,55 +3847,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Biomass wood</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>2.8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>2.54</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>2.28</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>2.03</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>1.77</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>1.51</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>1.55</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>1.58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>1.62</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.65</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.69</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.64</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.58</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>1.53</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3236,41 +3917,45 @@
           <t>DSR</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSR</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.55</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.83</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>1.1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>1.38</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>1.45</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>1.52</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.67</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.74</v>
       </c>
       <c r="N6" t="n">
         <v>1.74</v>
@@ -3281,7 +3966,13 @@
       <c r="P6" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3293,26 +3984,30 @@
           <t>Hydro ROR</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>16.32</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>16.35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>16.37</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>16.4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>16.42</v>
-      </c>
-      <c r="G7" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="H7" t="n">
-        <v>16.45</v>
       </c>
       <c r="I7" t="n">
         <v>16.45</v>
@@ -3338,7 +4033,13 @@
       <c r="P7" t="n">
         <v>16.45</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="R7" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3350,41 +4051,45 @@
           <t>Natural gas CCGT</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Natural gas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Natural gas CCGT</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.08</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>0.15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.23</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0.3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.38</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.33</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.27</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.22</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.16</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.11</v>
       </c>
       <c r="N8" t="n">
         <v>0.11</v>
@@ -3395,7 +4100,13 @@
       <c r="P8" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3407,26 +4118,30 @@
           <t>Natural gas OCGT</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Natural gas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Natural gas OCGT</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.02</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>0.04</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0.09</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.11</v>
       </c>
       <c r="I9" t="n">
         <v>0.11</v>
@@ -3452,7 +4167,13 @@
       <c r="P9" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3464,52 +4185,62 @@
           <t>Nuclear</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>7.29</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>7.2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>7.11</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>7.02</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>6.93</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>6.84</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>6.64</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>6.44</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6.25</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>6.05</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>5.85</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>5.32</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>4.79</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>4.26</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>3.73</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3518,55 +4249,65 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.65</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.31</v>
       </c>
-      <c r="E11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.08</v>
-      </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>1.64</v>
       </c>
       <c r="J11" t="n">
-        <v>5.71</v>
+        <v>2.04</v>
       </c>
       <c r="K11" t="n">
-        <v>6.53</v>
+        <v>2.45</v>
       </c>
       <c r="L11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P11" t="n">
         <v>7.34</v>
       </c>
-      <c r="M11" t="n">
+      <c r="Q11" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R11" t="n">
         <v>11</v>
       </c>
-      <c r="N11" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="O11" t="n">
-        <v>18.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3575,55 +4316,65 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wind offshore</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09</v>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="F12" t="n">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="G12" t="n">
-        <v>0.43</v>
+        <v>0.98</v>
       </c>
       <c r="H12" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="I12" t="n">
-        <v>2.26</v>
+        <v>1.64</v>
       </c>
       <c r="J12" t="n">
-        <v>3.17</v>
+        <v>2.04</v>
       </c>
       <c r="K12" t="n">
-        <v>4.09</v>
+        <v>2.45</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2.86</v>
       </c>
       <c r="M12" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R12" t="n">
         <v>11</v>
       </c>
-      <c r="N12" t="n">
-        <v>17</v>
-      </c>
-      <c r="O12" t="n">
-        <v>23</v>
-      </c>
-      <c r="P12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3632,55 +4383,132 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wind offshore</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>23</v>
+      </c>
+      <c r="R13" t="n">
+        <v>29</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Wind onshore</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>9.84</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E14" t="n">
         <v>10.99</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F14" t="n">
         <v>12.14</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G14" t="n">
         <v>13.29</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H14" t="n">
         <v>14.44</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I14" t="n">
         <v>15.59</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J14" t="n">
         <v>15.85</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K14" t="n">
         <v>16.11</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L14" t="n">
         <v>16.38</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M14" t="n">
         <v>16.64</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N14" t="n">
         <v>16.9</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O14" t="n">
         <v>17.62</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P14" t="n">
         <v>18.35</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q14" t="n">
         <v>19.08</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R14" t="n">
         <v>19.8</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3697,7 +4525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3708,57 +4536,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>2035</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>2045</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t># Unit</t>
         </is>
       </c>
     </row>
@@ -3768,11 +4606,15 @@
           <t>Battery large 4h</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Battery large 4h</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3805,15 +4647,21 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.01</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0.02</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3825,52 +4673,62 @@
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Biogas</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.33</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.26</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.23</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.19</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.16</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.17</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>0.19</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.22</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.23</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.25</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.27</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>0.29</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>0.31</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3882,52 +4740,62 @@
           <t>Biomass straw</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Biomass straw</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.33</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>0.3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.26</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.23</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.19</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.16</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.17</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>0.19</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.22</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.23</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.25</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.27</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.29</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>0.31</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3936,55 +4804,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Biomass wood</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Biomass wood chips</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.33</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.26</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.23</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.19</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.16</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.17</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.19</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.22</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.23</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.25</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.27</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.29</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.31</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -3996,11 +4874,15 @@
           <t>Hydro PSH</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.92</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hydro PSH</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.92</v>
@@ -4021,10 +4903,10 @@
         <v>0.92</v>
       </c>
       <c r="J6" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K6" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L6" t="n">
         <v>0.93</v>
@@ -4041,7 +4923,13 @@
       <c r="P6" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -4053,41 +4941,45 @@
           <t>Hydro ROR</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hydro ROR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1.63</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>1.6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>1.58</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>1.55</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>1.53</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>1.52</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>1.54</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>1.57</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.59</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.61</v>
       </c>
       <c r="N7" t="n">
         <v>1.61</v>
@@ -4098,7 +4990,13 @@
       <c r="P7" t="n">
         <v>1.61</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -4110,41 +5008,45 @@
           <t>Lignite</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>0.34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>0.39</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.43</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0.48</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.52</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.49</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.46</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.42</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.39</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.36</v>
       </c>
       <c r="N8" t="n">
         <v>0.36</v>
@@ -4155,7 +5057,13 @@
       <c r="P8" t="n">
         <v>0.36</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -4167,26 +5075,30 @@
           <t>Natural gas CCGT</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Natural gas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Natural gas CCGT</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1.16</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>1.09</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>1.02</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0.87</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8</v>
       </c>
       <c r="I9" t="n">
         <v>0.8</v>
@@ -4212,7 +5124,13 @@
       <c r="P9" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -4224,26 +5142,30 @@
           <t>Nuclear</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1.97</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>2.11</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>2.25</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>2.39</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>2.53</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.67</v>
       </c>
       <c r="I10" t="n">
         <v>2.67</v>
@@ -4269,7 +5191,13 @@
       <c r="P10" t="n">
         <v>2.67</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -4281,26 +5209,30 @@
           <t>Oil</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.26</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>0.24</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>0.21</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.19</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>0.16</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.14</v>
       </c>
       <c r="I11" t="n">
         <v>0.14</v>
@@ -4326,7 +5258,13 @@
       <c r="P11" t="n">
         <v>0.14</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -4335,55 +5273,65 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PV ground</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.53</v>
       </c>
-      <c r="C12" t="n">
+      <c r="M12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.6</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.24</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>0.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q12" t="inlineStr">
+        <v>0.62</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>GW</t>
         </is>
@@ -4392,55 +5340,132 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PV roof</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Wind onshore</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Wind onshore</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.05</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F14" t="n">
         <v>0.1</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G14" t="n">
         <v>0.15</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H14" t="n">
         <v>0.2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I14" t="n">
         <v>0.25</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J14" t="n">
         <v>0.3</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K14" t="n">
         <v>0.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L14" t="n">
         <v>0.39</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M14" t="n">
         <v>0.44</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N14" t="n">
         <v>0.49</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O14" t="n">
         <v>0.5</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P14" t="n">
         <v>0.5</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q14" t="n">
         <v>0.5</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R14" t="n">
         <v>0.51</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>GW</t>
         </is>

--- a/data/input/neighbors_capacities;source=TYNDP_2022.xlsx
+++ b/data/input/neighbors_capacities;source=TYNDP_2022.xlsx
@@ -574,17 +574,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Biogas plant and engine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biogas plant and engine</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1110,17 +1110,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1531,17 +1531,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Biogas plant and engine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biogas plant and engine</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2201,17 +2201,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2756,17 +2756,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Biogas plant and engine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biogas plant and engine</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3713,17 +3713,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Biogas plant and engine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biogas plant and engine</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4182,17 +4182,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4670,17 +4670,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Biogas plant and engine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Biogas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biogas plant and engine</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -5139,17 +5139,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Nuclear large</t>
         </is>
       </c>
       <c r="D10" t="n">
